--- a/테이블 정의서(KH 2조).xlsx
+++ b/테이블 정의서(KH 2조).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\KH\05. 조별 과제\04. 세미 프로젝트\_git\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFDE6746-3219-4B89-8842-7F3A47FE56F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114546D-1370-44C0-9B9B-C5F8C08E1435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="708" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1476" windowWidth="22320" windowHeight="13176" tabRatio="708" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="샘플" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="196">
   <si>
     <t>테이블ID</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -674,10 +674,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>숙소 정보</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>STY_NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -738,12 +734,20 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>LOCAL</t>
+    <t>호텔, 에어비엔비 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LOCAL</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>호텔, 에어비엔비 등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>숙박 정보</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1065,6 +1069,12 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,11 +1111,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1134,29 +1162,29 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1169,30 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1574,74 +1578,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -2232,31 +2236,31 @@
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" ht="21" customHeight="1"/>
     <row r="37" spans="1:9" ht="21" customHeight="1"/>
@@ -2311,62 +2315,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="15"/>
       <c r="D2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="44"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -2734,45 +2738,45 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="13.5">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="27" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10">
@@ -13673,6 +13677,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:I35"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -13680,13 +13691,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:I35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.27559055118110237" top="0.6692913385826772" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -13722,72 +13726,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="15" t="s">
         <v>142</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="44"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -14053,45 +14057,45 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="13.5">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="27.75" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10">
@@ -25317,72 +25321,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="15" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="44"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -25632,45 +25636,45 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="13.5">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="27.75" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10">
@@ -36740,67 +36744,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="15" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="51" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="54" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -36839,246 +36843,246 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="57">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>193</v>
+      <c r="B6" s="20" t="s">
+        <v>194</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>192</v>
+      <c r="C6" s="20" t="s">
+        <v>191</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="20">
         <v>10</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="57" t="s">
-        <v>188</v>
+      <c r="G6" s="20" t="s">
+        <v>187</v>
       </c>
-      <c r="H6" s="57"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="16" t="s">
         <v>165</v>
       </c>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="57">
+      <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="D7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="20">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="C8" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="57">
-        <v>10</v>
+      <c r="E8" s="20">
+        <v>30</v>
       </c>
-      <c r="F7" s="57" t="s">
-        <v>64</v>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="16" t="s">
+        <v>192</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>61</v>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="20">
+        <v>4</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="57">
-        <v>3</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="B9" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="C9" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="57">
-        <v>10</v>
+      <c r="E9" s="20">
+        <v>30</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="16" t="s">
-        <v>194</v>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="20">
+        <v>5</v>
       </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="57">
-        <v>4</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="57" t="s">
+      <c r="B10" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="C10" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E10" s="20">
         <v>30</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="57">
-        <v>5</v>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="20">
+        <v>6</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="57" t="s">
+      <c r="B11" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="C11" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E11" s="20">
         <v>20</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="57">
-        <v>6</v>
+      <c r="F11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="20">
+        <v>7</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>186</v>
+      <c r="B12" s="20" t="s">
+        <v>188</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>187</v>
+      <c r="C12" s="20" t="s">
+        <v>106</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="57">
-        <v>14</v>
+      <c r="E12" s="20">
+        <v>200</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="57">
-        <v>7</v>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="20">
+        <v>8</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B13" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>106</v>
+      <c r="C13" s="20" t="s">
+        <v>190</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D13" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E13" s="20">
         <v>200</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="57">
-        <v>8</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="57">
-        <v>200</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="13.5">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="27.75" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10">
@@ -48099,6 +48103,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
@@ -48106,13 +48117,6 @@
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.27559055118110237" top="0.6692913385826772" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/테이블 정의서(KH 2조).xlsx
+++ b/테이블 정의서(KH 2조).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82106\Desktop\KH\05. 조별 과제\04. 세미 프로젝트\_git\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yooil\OneDrive\바탕 화면\KH세미프로젝트\gitclone\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F114546D-1370-44C0-9B9B-C5F8C08E1435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E324EC04-19F3-4773-AB84-1E7A6C5D7C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1476" windowWidth="22320" windowHeight="13176" tabRatio="708" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18840" tabRatio="708" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="샘플" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="197">
   <si>
     <t>테이블ID</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -749,6 +749,10 @@
     <t>숙박 정보</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1111,29 +1115,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1162,8 +1148,38 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,18 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -2315,62 +2319,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="15"/>
       <c r="D2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="15"/>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="35"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -2738,45 +2742,45 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="13.5">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="27" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10">
@@ -13677,6 +13681,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="B36:I36"/>
@@ -13684,13 +13695,6 @@
     <mergeCell ref="C34:I34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:I35"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.27559055118110237" top="0.6692913385826772" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -13726,23 +13730,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="15" t="s">
         <v>142</v>
       </c>
@@ -13753,45 +13757,45 @@
         <v>145</v>
       </c>
       <c r="F2" s="22"/>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="35"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -14057,19 +14061,19 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="13.5">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10">
@@ -14088,14 +14092,14 @@
       <c r="A18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10">
@@ -25321,23 +25325,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="15" t="s">
         <v>141</v>
       </c>
@@ -25348,45 +25352,45 @@
         <v>131</v>
       </c>
       <c r="F2" s="22"/>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="35"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -25636,19 +25640,19 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="13.5">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10">
@@ -25667,14 +25671,14 @@
       <c r="A17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10">
@@ -36726,7 +36730,7 @@
   <dimension ref="A1:J935"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
@@ -36744,74 +36748,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="15" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="51" t="s">
         <v>173</v>
       </c>
       <c r="F2" s="22"/>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
       <c r="A5" s="17" t="s">
@@ -36981,6 +36985,9 @@
         <v>20</v>
       </c>
       <c r="F11" s="20"/>
+      <c r="G11" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="10"/>
@@ -37044,45 +37051,45 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="13.5">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="27.75" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10">
@@ -48103,6 +48110,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:I16"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>
@@ -48110,13 +48124,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.27559055118110237" top="0.6692913385826772" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.51181102362204722"/>
